--- a/img/Import_employee.xlsx
+++ b/img/Import_employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tns-hr-eservices\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\jirayu-a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F37004C-F800-4016-9499-C6F03CDC0248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38AC020-B1BA-4001-A996-4EAE3001465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F2FA02FF-2ACC-464D-990B-DECC9FA9D924}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{F2FA02FF-2ACC-464D-990B-DECC9FA9D924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,15 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
-      <t xml:space="preserve">Employee Grade
+      <t xml:space="preserve">Superior Name 1
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -55,7 +53,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Employee Hired Date
+      <t xml:space="preserve">Employee ID 1
 </t>
     </r>
     <r>
@@ -66,12 +64,58 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Ex. d/m/Y : 1/12/2023)</t>
-    </r>
+      <t>(Please fill in.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Superior Grade 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Please fill in.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Superior Email 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Please fill in.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Employee Tname</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -92,7 +136,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Employee E-mail
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -108,7 +168,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Superior Grade
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee Grade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -124,7 +200,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Superior Email
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee Division</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -140,7 +232,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Employee ID
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee Section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -156,7 +264,44 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Employee Name
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee Hired Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Ex. d/m/Y : 1/12/2023)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -172,7 +317,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Superior Name
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee E-mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -187,40 +348,36 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Employee Division
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Please fill in.)</t>
-    </r>
+    <t>Employee ID 2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Employee Section
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Please fill in.)</t>
-    </r>
+    <t>Superior Name 2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Status
+    <t>Superior Grade 2</t>
+  </si>
+  <si>
+    <t>Superior Email 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -236,7 +393,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -260,7 +417,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14409]dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +444,73 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,31 +554,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -684,135 +953,1325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D0865E-D2FF-4538-8091-EDB6FDEEABF3}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1796875" customWidth="1"/>
+    <col min="17" max="17" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="42.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>4</v>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G9" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="16"/>
+      <c r="H65"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="1:17" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q66">
+    <sortCondition ref="D2:D66"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
